--- a/Collections/USA/#USA#Proof_sets#[1936-present]#proof_quality.xlsx
+++ b/Collections/USA/#USA#Proof_sets#[1936-present]#proof_quality.xlsx
@@ -1,40 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\USA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22A9EFF-04DB-49F3-8C87-26F52ECE428A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classic_Proof_sets" sheetId="6" r:id="rId1"/>
     <sheet name="Silver&amp;Prestige_Proof_sets" sheetId="7" r:id="rId2"/>
     <sheet name="Links" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -121,12 +114,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -141,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -167,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -182,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -845,7 +838,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1464,16 +1457,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица4" displayName="Таблица4" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1775,29 +1768,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B95" sqref="B95"/>
+      <selection pane="bottomRight" activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="7" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="1" customWidth="1"/>
-    <col min="10" max="25" width="8.7265625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="14.453125" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="7" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="25" width="8.7109375" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
@@ -1815,7 +1808,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
@@ -1837,7 +1830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1936</v>
       </c>
@@ -1868,7 +1861,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1937</v>
       </c>
@@ -1899,7 +1892,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1938</v>
       </c>
@@ -1930,7 +1923,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>1939</v>
       </c>
@@ -1961,7 +1954,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>1940</v>
       </c>
@@ -1992,7 +1985,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>1941</v>
       </c>
@@ -2020,7 +2013,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>1942</v>
       </c>
@@ -2050,7 +2043,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>1942</v>
       </c>
@@ -2080,7 +2073,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>1943</v>
       </c>
@@ -2110,7 +2103,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1944</v>
       </c>
@@ -2140,7 +2133,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>1945</v>
       </c>
@@ -2170,7 +2163,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>1946</v>
       </c>
@@ -2200,7 +2193,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1947</v>
       </c>
@@ -2230,7 +2223,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>1948</v>
       </c>
@@ -2260,7 +2253,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1949</v>
       </c>
@@ -2290,7 +2283,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>1950</v>
       </c>
@@ -2318,7 +2311,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>1951</v>
       </c>
@@ -2347,7 +2340,7 @@
       </c>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>1952</v>
       </c>
@@ -2375,7 +2368,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>1953</v>
       </c>
@@ -2403,7 +2396,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>1954</v>
       </c>
@@ -2431,7 +2424,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>1955</v>
       </c>
@@ -2461,7 +2454,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>1955</v>
       </c>
@@ -2491,7 +2484,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>1956</v>
       </c>
@@ -2519,7 +2512,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>1957</v>
       </c>
@@ -2547,7 +2540,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>1958</v>
       </c>
@@ -2575,7 +2568,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>1959</v>
       </c>
@@ -2603,7 +2596,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>1960</v>
       </c>
@@ -2631,7 +2624,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>1960</v>
       </c>
@@ -2661,7 +2654,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>1961</v>
       </c>
@@ -2689,7 +2682,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>1962</v>
       </c>
@@ -2717,7 +2710,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>1963</v>
       </c>
@@ -2745,7 +2738,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>1964</v>
       </c>
@@ -2773,7 +2766,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>1965</v>
       </c>
@@ -2803,7 +2796,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>1966</v>
       </c>
@@ -2833,7 +2826,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>1967</v>
       </c>
@@ -2863,7 +2856,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>1968</v>
       </c>
@@ -2891,7 +2884,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>1968</v>
       </c>
@@ -2921,7 +2914,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>1969</v>
       </c>
@@ -2949,7 +2942,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>1970</v>
       </c>
@@ -2977,7 +2970,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>1970</v>
       </c>
@@ -3007,7 +3000,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>1970</v>
       </c>
@@ -3037,7 +3030,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>1971</v>
       </c>
@@ -3065,7 +3058,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>1971</v>
       </c>
@@ -3095,7 +3088,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>1972</v>
       </c>
@@ -3123,7 +3116,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>1973</v>
       </c>
@@ -3151,7 +3144,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>1974</v>
       </c>
@@ -3179,7 +3172,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>1975</v>
       </c>
@@ -3209,7 +3202,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>1975</v>
       </c>
@@ -3239,7 +3232,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>1976</v>
       </c>
@@ -3267,7 +3260,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>1977</v>
       </c>
@@ -3295,7 +3288,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>1978</v>
       </c>
@@ -3323,7 +3316,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>1979</v>
       </c>
@@ -3353,7 +3346,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>1979</v>
       </c>
@@ -3383,7 +3376,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>1980</v>
       </c>
@@ -3411,7 +3404,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>1981</v>
       </c>
@@ -3441,7 +3434,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>1981</v>
       </c>
@@ -3471,7 +3464,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>1982</v>
       </c>
@@ -3499,7 +3492,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>1983</v>
       </c>
@@ -3527,7 +3520,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>1984</v>
       </c>
@@ -3555,7 +3548,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>1985</v>
       </c>
@@ -3583,7 +3576,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>1986</v>
       </c>
@@ -3611,7 +3604,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>1987</v>
       </c>
@@ -3639,7 +3632,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>1988</v>
       </c>
@@ -3667,7 +3660,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>1989</v>
       </c>
@@ -3695,7 +3688,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>1990</v>
       </c>
@@ -3723,7 +3716,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>1990</v>
       </c>
@@ -3753,7 +3746,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>1991</v>
       </c>
@@ -3781,7 +3774,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>1992</v>
       </c>
@@ -3809,7 +3802,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>1993</v>
       </c>
@@ -3837,7 +3830,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>1994</v>
       </c>
@@ -3865,7 +3858,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>1995</v>
       </c>
@@ -3893,7 +3886,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>1996</v>
       </c>
@@ -3921,7 +3914,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>1997</v>
       </c>
@@ -3949,7 +3942,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>1998</v>
       </c>
@@ -3977,7 +3970,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>1999</v>
       </c>
@@ -4007,7 +4000,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>2000</v>
       </c>
@@ -4037,7 +4030,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>2001</v>
       </c>
@@ -4067,7 +4060,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>2002</v>
       </c>
@@ -4097,7 +4090,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>2003</v>
       </c>
@@ -4127,7 +4120,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>2004</v>
       </c>
@@ -4157,7 +4150,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>2005</v>
       </c>
@@ -4187,7 +4180,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>2006</v>
       </c>
@@ -4217,7 +4210,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>2007</v>
       </c>
@@ -4247,7 +4240,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>2008</v>
       </c>
@@ -4277,7 +4270,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>2009</v>
       </c>
@@ -4307,7 +4300,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>2010</v>
       </c>
@@ -4337,7 +4330,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>2011</v>
       </c>
@@ -4367,7 +4360,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>2012</v>
       </c>
@@ -4397,7 +4390,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>2013</v>
       </c>
@@ -4427,7 +4420,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>2014</v>
       </c>
@@ -4457,7 +4450,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>2015</v>
       </c>
@@ -4487,7 +4480,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <v>2016</v>
       </c>
@@ -4517,7 +4510,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <v>2017</v>
       </c>
@@ -4547,7 +4540,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <v>2018</v>
       </c>
@@ -4575,7 +4568,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>2019</v>
       </c>
@@ -5077,29 +5070,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B84" sqref="B84:B85"/>
+      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="7" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="1" customWidth="1"/>
-    <col min="10" max="26" width="8.7265625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="14.453125" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="7" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="26" width="8.7109375" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
@@ -5117,7 +5110,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
@@ -5139,7 +5132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1976</v>
       </c>
@@ -5167,7 +5160,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1977</v>
       </c>
@@ -5197,7 +5190,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1978</v>
       </c>
@@ -5227,7 +5220,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>1979</v>
       </c>
@@ -5257,7 +5250,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>1980</v>
       </c>
@@ -5287,7 +5280,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>1981</v>
       </c>
@@ -5317,7 +5310,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>1982</v>
       </c>
@@ -5347,7 +5340,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>1983</v>
       </c>
@@ -5375,7 +5368,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>1984</v>
       </c>
@@ -5403,7 +5396,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1985</v>
       </c>
@@ -5433,7 +5426,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>1986</v>
       </c>
@@ -5461,7 +5454,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>1987</v>
       </c>
@@ -5489,7 +5482,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1988</v>
       </c>
@@ -5517,7 +5510,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>1989</v>
       </c>
@@ -5545,7 +5538,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1990</v>
       </c>
@@ -5573,7 +5566,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>1990</v>
       </c>
@@ -5603,7 +5596,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>1991</v>
       </c>
@@ -5631,7 +5624,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>1992</v>
       </c>
@@ -5659,7 +5652,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>1992</v>
       </c>
@@ -5687,7 +5680,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>1992</v>
       </c>
@@ -5715,7 +5708,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>1993</v>
       </c>
@@ -5743,7 +5736,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>1993</v>
       </c>
@@ -5771,7 +5764,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>1993</v>
       </c>
@@ -5799,7 +5792,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>1994</v>
       </c>
@@ -5827,7 +5820,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>1994</v>
       </c>
@@ -5855,7 +5848,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>1994</v>
       </c>
@@ -5883,7 +5876,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>1995</v>
       </c>
@@ -5911,7 +5904,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>1995</v>
       </c>
@@ -5939,7 +5932,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>1995</v>
       </c>
@@ -5967,7 +5960,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>1996</v>
       </c>
@@ -5995,7 +5988,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>1996</v>
       </c>
@@ -6023,7 +6016,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>1996</v>
       </c>
@@ -6051,7 +6044,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>1997</v>
       </c>
@@ -6079,7 +6072,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>1997</v>
       </c>
@@ -6107,7 +6100,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>1997</v>
       </c>
@@ -6135,7 +6128,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>1998</v>
       </c>
@@ -6163,7 +6156,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>1998</v>
       </c>
@@ -6191,7 +6184,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>1999</v>
       </c>
@@ -6219,7 +6212,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>2000</v>
       </c>
@@ -6247,7 +6240,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>2001</v>
       </c>
@@ -6275,7 +6268,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>2002</v>
       </c>
@@ -6303,7 +6296,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>2003</v>
       </c>
@@ -6331,7 +6324,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>2004</v>
       </c>
@@ -6359,7 +6352,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>2004</v>
       </c>
@@ -6387,7 +6380,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>2005</v>
       </c>
@@ -6415,7 +6408,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>2005</v>
       </c>
@@ -6443,7 +6436,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>2006</v>
       </c>
@@ -6471,7 +6464,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>2006</v>
       </c>
@@ -6499,7 +6492,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>2007</v>
       </c>
@@ -6527,7 +6520,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>2007</v>
       </c>
@@ -6555,7 +6548,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>2008</v>
       </c>
@@ -6583,7 +6576,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>2008</v>
       </c>
@@ -6611,7 +6604,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>2009</v>
       </c>
@@ -6639,7 +6632,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>2009</v>
       </c>
@@ -6667,7 +6660,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>2010</v>
       </c>
@@ -6695,7 +6688,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>2010</v>
       </c>
@@ -6723,7 +6716,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>2011</v>
       </c>
@@ -6751,7 +6744,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>2011</v>
       </c>
@@ -6779,7 +6772,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>2012</v>
       </c>
@@ -6807,7 +6800,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>2012</v>
       </c>
@@ -6835,7 +6828,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>2012</v>
       </c>
@@ -6863,7 +6856,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>2013</v>
       </c>
@@ -6891,7 +6884,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>2013</v>
       </c>
@@ -6919,7 +6912,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>2013</v>
       </c>
@@ -6947,7 +6940,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>2014</v>
       </c>
@@ -6975,7 +6968,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>2014</v>
       </c>
@@ -7003,7 +6996,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>2014</v>
       </c>
@@ -7031,7 +7024,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>2015</v>
       </c>
@@ -7059,7 +7052,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>2015</v>
       </c>
@@ -7087,7 +7080,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>2016</v>
       </c>
@@ -7115,7 +7108,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>2016</v>
       </c>
@@ -7143,7 +7136,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>2016</v>
       </c>
@@ -7171,7 +7164,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>2017</v>
       </c>
@@ -7199,7 +7192,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>2017</v>
       </c>
@@ -7227,7 +7220,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>2017</v>
       </c>
@@ -7253,7 +7246,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>2018</v>
       </c>
@@ -7279,7 +7272,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>2018</v>
       </c>
@@ -7305,7 +7298,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>2018</v>
       </c>
@@ -7333,7 +7326,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>2018</v>
       </c>
@@ -7359,7 +7352,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>2019</v>
       </c>
@@ -7385,7 +7378,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>2019</v>
       </c>
@@ -7411,7 +7404,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>2019</v>
       </c>
@@ -7571,21 +7564,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
@@ -7596,7 +7589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -7607,7 +7600,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -7618,15 +7611,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Collections/USA/#USA#Proof_sets#[1936-present]#proof_quality.xlsx
+++ b/Collections/USA/#USA#Proof_sets#[1936-present]#proof_quality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\USA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22A9EFF-04DB-49F3-8C87-26F52ECE428A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB90816-4D39-4473-BB90-DB789F234652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6380" yWindow="3800" windowWidth="28800" windowHeight="17740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classic_Proof_sets" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,17 @@
     <sheet name="Links" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -206,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="210">
   <si>
     <t>Mintage</t>
   </si>
@@ -833,6 +844,9 @@
   </si>
   <si>
     <t>100,000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1778,19 +1792,19 @@
       <selection pane="bottomRight" activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="7" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="25" width="8.7109375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="5.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="7" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="1" customWidth="1"/>
+    <col min="10" max="25" width="8.7265625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
@@ -1808,7 +1822,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29"/>
       <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
@@ -1830,7 +1844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1936</v>
       </c>
@@ -1861,7 +1875,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>1937</v>
       </c>
@@ -1892,7 +1906,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>1938</v>
       </c>
@@ -1923,7 +1937,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>1939</v>
       </c>
@@ -1954,7 +1968,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>1940</v>
       </c>
@@ -1985,7 +1999,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>1941</v>
       </c>
@@ -2013,7 +2027,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>1942</v>
       </c>
@@ -2043,7 +2057,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>1942</v>
       </c>
@@ -2073,7 +2087,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>1943</v>
       </c>
@@ -2103,7 +2117,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>1944</v>
       </c>
@@ -2133,7 +2147,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>1945</v>
       </c>
@@ -2163,7 +2177,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>1946</v>
       </c>
@@ -2193,7 +2207,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>1947</v>
       </c>
@@ -2223,7 +2237,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>1948</v>
       </c>
@@ -2253,7 +2267,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>1949</v>
       </c>
@@ -2283,7 +2297,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>1950</v>
       </c>
@@ -2311,7 +2325,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>1951</v>
       </c>
@@ -2340,7 +2354,7 @@
       </c>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>1952</v>
       </c>
@@ -2368,7 +2382,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>1953</v>
       </c>
@@ -2396,7 +2410,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>1954</v>
       </c>
@@ -2424,7 +2438,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>1955</v>
       </c>
@@ -2454,7 +2468,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>1955</v>
       </c>
@@ -2484,7 +2498,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>1956</v>
       </c>
@@ -2512,7 +2526,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>1957</v>
       </c>
@@ -2540,7 +2554,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>1958</v>
       </c>
@@ -2568,7 +2582,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>1959</v>
       </c>
@@ -2596,7 +2610,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>1960</v>
       </c>
@@ -2624,7 +2638,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>1960</v>
       </c>
@@ -2654,7 +2668,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>1961</v>
       </c>
@@ -2682,7 +2696,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>1962</v>
       </c>
@@ -2710,7 +2724,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>1963</v>
       </c>
@@ -2738,7 +2752,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>1964</v>
       </c>
@@ -2766,7 +2780,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>1965</v>
       </c>
@@ -2796,7 +2810,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>1966</v>
       </c>
@@ -2826,7 +2840,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
         <v>1967</v>
       </c>
@@ -2856,7 +2870,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>1968</v>
       </c>
@@ -2884,7 +2898,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11">
         <v>1968</v>
       </c>
@@ -2914,7 +2928,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
         <v>1969</v>
       </c>
@@ -2942,7 +2956,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11">
         <v>1970</v>
       </c>
@@ -2970,7 +2984,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11">
         <v>1970</v>
       </c>
@@ -3000,7 +3014,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
         <v>1970</v>
       </c>
@@ -3030,7 +3044,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
         <v>1971</v>
       </c>
@@ -3058,7 +3072,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>1971</v>
       </c>
@@ -3088,7 +3102,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
         <v>1972</v>
       </c>
@@ -3116,7 +3130,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11">
         <v>1973</v>
       </c>
@@ -3144,7 +3158,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11">
         <v>1974</v>
       </c>
@@ -3172,7 +3186,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11">
         <v>1975</v>
       </c>
@@ -3202,7 +3216,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11">
         <v>1975</v>
       </c>
@@ -3232,7 +3246,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>1976</v>
       </c>
@@ -3260,7 +3274,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>1977</v>
       </c>
@@ -3288,7 +3302,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
         <v>1978</v>
       </c>
@@ -3316,7 +3330,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
         <v>1979</v>
       </c>
@@ -3346,7 +3360,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11">
         <v>1979</v>
       </c>
@@ -3376,7 +3390,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
         <v>1980</v>
       </c>
@@ -3404,7 +3418,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11">
         <v>1981</v>
       </c>
@@ -3434,7 +3448,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>1981</v>
       </c>
@@ -3464,7 +3478,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11">
         <v>1982</v>
       </c>
@@ -3492,7 +3506,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
         <v>1983</v>
       </c>
@@ -3520,7 +3534,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11">
         <v>1984</v>
       </c>
@@ -3548,7 +3562,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>1985</v>
       </c>
@@ -3576,7 +3590,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11">
         <v>1986</v>
       </c>
@@ -3604,7 +3618,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
         <v>1987</v>
       </c>
@@ -3632,7 +3646,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11">
         <v>1988</v>
       </c>
@@ -3660,7 +3674,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11">
         <v>1989</v>
       </c>
@@ -3688,7 +3702,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11">
         <v>1990</v>
       </c>
@@ -3716,7 +3730,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11">
         <v>1990</v>
       </c>
@@ -3746,7 +3760,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11">
         <v>1991</v>
       </c>
@@ -3774,7 +3788,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11">
         <v>1992</v>
       </c>
@@ -3802,7 +3816,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11">
         <v>1993</v>
       </c>
@@ -3830,7 +3844,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11">
         <v>1994</v>
       </c>
@@ -3858,7 +3872,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11">
         <v>1995</v>
       </c>
@@ -3886,7 +3900,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11">
         <v>1996</v>
       </c>
@@ -3914,7 +3928,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11">
         <v>1997</v>
       </c>
@@ -3942,7 +3956,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11">
         <v>1998</v>
       </c>
@@ -3970,7 +3984,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11">
         <v>1999</v>
       </c>
@@ -4000,7 +4014,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11">
         <v>2000</v>
       </c>
@@ -4030,7 +4044,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11">
         <v>2001</v>
       </c>
@@ -4060,7 +4074,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11">
         <v>2002</v>
       </c>
@@ -4090,7 +4104,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11">
         <v>2003</v>
       </c>
@@ -4120,7 +4134,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11">
         <v>2004</v>
       </c>
@@ -4150,7 +4164,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11">
         <v>2005</v>
       </c>
@@ -4180,7 +4194,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11">
         <v>2006</v>
       </c>
@@ -4210,7 +4224,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="11">
         <v>2007</v>
       </c>
@@ -4240,7 +4254,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11">
         <v>2008</v>
       </c>
@@ -4270,7 +4284,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11">
         <v>2009</v>
       </c>
@@ -4300,7 +4314,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11">
         <v>2010</v>
       </c>
@@ -4330,7 +4344,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11">
         <v>2011</v>
       </c>
@@ -4360,7 +4374,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11">
         <v>2012</v>
       </c>
@@ -4390,7 +4404,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="11">
         <v>2013</v>
       </c>
@@ -4420,7 +4434,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="11">
         <v>2014</v>
       </c>
@@ -4450,7 +4464,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="11">
         <v>2015</v>
       </c>
@@ -4480,7 +4494,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="11">
         <v>2016</v>
       </c>
@@ -4510,7 +4524,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="11">
         <v>2017</v>
       </c>
@@ -4540,7 +4554,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11">
         <v>2018</v>
       </c>
@@ -4568,7 +4582,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="11">
         <v>2019</v>
       </c>
@@ -5074,30 +5088,30 @@
   <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="7" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="26" width="8.7109375" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="5.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="7" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="1" customWidth="1"/>
+    <col min="10" max="26" width="8.7265625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>5</v>
@@ -5110,7 +5124,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29"/>
       <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
@@ -5132,7 +5146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1976</v>
       </c>
@@ -5160,7 +5174,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>1977</v>
       </c>
@@ -5190,7 +5204,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>1978</v>
       </c>
@@ -5220,7 +5234,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>1979</v>
       </c>
@@ -5250,7 +5264,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>1980</v>
       </c>
@@ -5280,7 +5294,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>1981</v>
       </c>
@@ -5310,7 +5324,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>1982</v>
       </c>
@@ -5340,7 +5354,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>1983</v>
       </c>
@@ -5368,7 +5382,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>1984</v>
       </c>
@@ -5396,7 +5410,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>1985</v>
       </c>
@@ -5426,7 +5440,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>1986</v>
       </c>
@@ -5454,7 +5468,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>1987</v>
       </c>
@@ -5482,7 +5496,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>1988</v>
       </c>
@@ -5510,7 +5524,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>1989</v>
       </c>
@@ -5538,7 +5552,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>1990</v>
       </c>
@@ -5566,7 +5580,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>1990</v>
       </c>
@@ -5596,7 +5610,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>1991</v>
       </c>
@@ -5624,7 +5638,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>1992</v>
       </c>
@@ -5652,7 +5666,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>1992</v>
       </c>
@@ -5680,7 +5694,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>1992</v>
       </c>
@@ -5708,7 +5722,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>1993</v>
       </c>
@@ -5736,7 +5750,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>1993</v>
       </c>
@@ -5764,7 +5778,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>1993</v>
       </c>
@@ -5792,7 +5806,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>1994</v>
       </c>
@@ -5820,7 +5834,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>1994</v>
       </c>
@@ -5848,7 +5862,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>1994</v>
       </c>
@@ -5876,7 +5890,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>1995</v>
       </c>
@@ -5904,7 +5918,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>1995</v>
       </c>
@@ -5932,7 +5946,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>1995</v>
       </c>
@@ -5960,7 +5974,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>1996</v>
       </c>
@@ -5988,7 +6002,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>1996</v>
       </c>
@@ -6016,7 +6030,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>1996</v>
       </c>
@@ -6044,7 +6058,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>1997</v>
       </c>
@@ -6072,7 +6086,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>1997</v>
       </c>
@@ -6100,7 +6114,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
         <v>1997</v>
       </c>
@@ -6128,7 +6142,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>1998</v>
       </c>
@@ -6156,7 +6170,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11">
         <v>1998</v>
       </c>
@@ -6184,7 +6198,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
         <v>1999</v>
       </c>
@@ -6212,7 +6226,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11">
         <v>2000</v>
       </c>
@@ -6240,7 +6254,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11">
         <v>2001</v>
       </c>
@@ -6268,7 +6282,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
         <v>2002</v>
       </c>
@@ -6296,7 +6310,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
         <v>2003</v>
       </c>
@@ -6324,7 +6338,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>2004</v>
       </c>
@@ -6352,7 +6366,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
         <v>2004</v>
       </c>
@@ -6380,7 +6394,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11">
         <v>2005</v>
       </c>
@@ -6408,7 +6422,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11">
         <v>2005</v>
       </c>
@@ -6436,7 +6450,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11">
         <v>2006</v>
       </c>
@@ -6464,7 +6478,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11">
         <v>2006</v>
       </c>
@@ -6492,7 +6506,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>2007</v>
       </c>
@@ -6520,7 +6534,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>2007</v>
       </c>
@@ -6548,7 +6562,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
         <v>2008</v>
       </c>
@@ -6576,7 +6590,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
         <v>2008</v>
       </c>
@@ -6604,7 +6618,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11">
         <v>2009</v>
       </c>
@@ -6632,7 +6646,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
         <v>2009</v>
       </c>
@@ -6660,7 +6674,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11">
         <v>2010</v>
       </c>
@@ -6688,7 +6702,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>2010</v>
       </c>
@@ -6716,7 +6730,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11">
         <v>2011</v>
       </c>
@@ -6744,7 +6758,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
         <v>2011</v>
       </c>
@@ -6772,7 +6786,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11">
         <v>2012</v>
       </c>
@@ -6800,7 +6814,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>2012</v>
       </c>
@@ -6828,7 +6842,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11">
         <v>2012</v>
       </c>
@@ -6856,7 +6870,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
         <v>2013</v>
       </c>
@@ -6884,7 +6898,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11">
         <v>2013</v>
       </c>
@@ -6912,7 +6926,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11">
         <v>2013</v>
       </c>
@@ -6940,7 +6954,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11">
         <v>2014</v>
       </c>
@@ -6968,7 +6982,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11">
         <v>2014</v>
       </c>
@@ -6996,7 +7010,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11">
         <v>2014</v>
       </c>
@@ -7024,7 +7038,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11">
         <v>2015</v>
       </c>
@@ -7052,7 +7066,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11">
         <v>2015</v>
       </c>
@@ -7080,7 +7094,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11">
         <v>2016</v>
       </c>
@@ -7108,7 +7122,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11">
         <v>2016</v>
       </c>
@@ -7136,7 +7150,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11">
         <v>2016</v>
       </c>
@@ -7164,7 +7178,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11">
         <v>2017</v>
       </c>
@@ -7192,7 +7206,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11">
         <v>2017</v>
       </c>
@@ -7220,7 +7234,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11">
         <v>2017</v>
       </c>
@@ -7246,7 +7260,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11">
         <v>2018</v>
       </c>
@@ -7272,7 +7286,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11">
         <v>2018</v>
       </c>
@@ -7298,7 +7312,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11">
         <v>2018</v>
       </c>
@@ -7326,7 +7340,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11">
         <v>2018</v>
       </c>
@@ -7352,7 +7366,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11">
         <v>2019</v>
       </c>
@@ -7378,7 +7392,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11">
         <v>2019</v>
       </c>
@@ -7404,7 +7418,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11">
         <v>2019</v>
       </c>
@@ -7571,14 +7585,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
@@ -7589,7 +7603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -7600,7 +7614,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -7611,7 +7625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>

--- a/Collections/USA/#USA#Proof_sets#[1936-present]#proof_quality.xlsx
+++ b/Collections/USA/#USA#Proof_sets#[1936-present]#proof_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB90816-4D39-4473-BB90-DB789F234652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70517033-EDC4-4188-9FDF-55F0CFEF545C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="3800" windowWidth="28800" windowHeight="17740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classic_Proof_sets" sheetId="6" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="210">
   <si>
     <t>Mintage</t>
   </si>
@@ -1175,15 +1175,14 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="60">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1457,6 +1456,191 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1478,9 +1662,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="58" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1786,10 +1970,10 @@
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F95" sqref="F95"/>
+      <selection pane="bottomRight" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4619,7 +4803,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="H40:H41 G3:G10 G18:G23 G30:G34 H44 H46:H49 H51:H54 G25:G28 H56:H57 H59:H67 H69:H97">
-    <cfRule type="containsText" dxfId="36" priority="72" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="72" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4636,7 +4820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H23 H30:H34 H25:H28">
-    <cfRule type="containsText" dxfId="35" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4653,7 +4837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:G37">
-    <cfRule type="containsText" dxfId="34" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4670,7 +4854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H37">
-    <cfRule type="containsText" dxfId="33" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4687,7 +4871,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38 G40:G41 G44 G46:G49 G51:G54 G56:G57 G59:G67 G69:G97">
-    <cfRule type="containsText" dxfId="32" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4704,7 +4888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G17">
-    <cfRule type="containsText" dxfId="31" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4721,7 +4905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="30" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4738,7 +4922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="29" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4755,7 +4939,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="containsText" dxfId="28" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4772,7 +4956,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="27" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4789,7 +4973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="26" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4806,7 +4990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="containsText" dxfId="25" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4823,7 +5007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4840,7 +5024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4857,7 +5041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4874,7 +5058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4891,7 +5075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4908,7 +5092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H50))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4925,7 +5109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G50))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4942,7 +5126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4959,7 +5143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4976,7 +5160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H55))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4993,7 +5177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G55))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5010,7 +5194,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5027,7 +5211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5044,7 +5228,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H68))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5061,7 +5245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G68))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5085,13 +5269,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5106,7 +5290,7 @@
     <col min="27" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
@@ -5124,7 +5308,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29"/>
       <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
@@ -5146,37 +5330,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
-        <v>1976</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="16"/>
+        <v>1936</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>61</v>
+      <c r="F3" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="12">
-        <v>0</v>
+      <c r="H3" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I3" s="8" t="str">
-        <f t="shared" ref="I3:I37" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="I3:I42" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
-        <v>1977</v>
+        <v>1937</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>11</v>
@@ -5203,10 +5392,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
-        <v>1978</v>
+        <v>1938</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>11</v>
@@ -5233,10 +5425,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
-        <v>1979</v>
+        <v>1939</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>11</v>
@@ -5263,10 +5458,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
-        <v>1980</v>
+        <v>1940</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>11</v>
@@ -5293,10 +5491,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
-        <v>1981</v>
+        <v>1941</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -5324,9 +5525,9 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
-        <v>1982</v>
+        <v>1942</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>11</v>
@@ -5354,65 +5555,69 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
-        <v>1983</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="16"/>
+        <v>1943</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>71</v>
+      <c r="F10" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="12">
-        <v>0</v>
+      <c r="H10" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I10" s="8" t="str">
-        <f t="shared" ref="I10" si="1">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-"),AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
-        <v>1984</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="16"/>
+        <v>1944</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>72</v>
+      <c r="F11" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="12">
-        <v>0</v>
+      <c r="H11" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I11" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
-        <v>1985</v>
+        <v>1945</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>11</v>
@@ -5436,594 +5641,635 @@
         <v>11</v>
       </c>
       <c r="I12" s="8" t="str">
-        <f t="shared" ref="I12" si="2">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
-        <v>1986</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="16"/>
+        <v>1946</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>83</v>
+      <c r="F13" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="12">
-        <v>0</v>
+      <c r="H13" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I13" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
-        <v>1987</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="16"/>
+        <v>1947</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>86</v>
+      <c r="F14" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="12">
-        <v>0</v>
+      <c r="H14" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I14" s="8" t="str">
-        <f t="shared" ref="I14:I28" si="3">IF(OR(AND(G14&gt;1,G14&lt;&gt;"-"),AND(H14&gt;1,H14&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
-        <v>1988</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="16"/>
+        <v>1948</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>87</v>
+      <c r="F15" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="12">
-        <v>0</v>
+      <c r="H15" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I15" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
-        <v>1989</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="16"/>
+        <v>1949</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>90</v>
+      <c r="F16" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="12">
-        <v>0</v>
+      <c r="H16" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I16" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
-        <v>1990</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="16"/>
+        <v>1950</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>92</v>
+      <c r="F17" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="12">
-        <v>0</v>
+      <c r="H17" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I17" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
-        <v>1990</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>80</v>
+        <v>1951</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>92</v>
+      <c r="F18" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="12">
-        <v>0</v>
+      <c r="H18" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I18" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
-        <v>1991</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="16"/>
+        <v>1952</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>99</v>
+      <c r="F19" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="12">
-        <v>0</v>
+      <c r="H19" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I19" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
-        <v>1992</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="16"/>
+        <v>1953</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>101</v>
+      <c r="F20" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="12">
-        <v>0</v>
+      <c r="H20" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I20" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
-        <v>1992</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="16"/>
+        <v>1954</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>103</v>
+      <c r="F21" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="12">
-        <v>0</v>
+      <c r="H21" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I21" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
-        <v>1992</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="16"/>
+        <v>1955</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>104</v>
+      <c r="F22" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="12">
-        <v>0</v>
+      <c r="H22" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I22" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
-        <v>1993</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="16"/>
+        <v>1956</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>106</v>
+      <c r="F23" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="12">
-        <v>0</v>
+      <c r="H23" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I23" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
-        <v>1993</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="16"/>
+        <v>1957</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>109</v>
+      <c r="F24" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="12">
-        <v>0</v>
+      <c r="H24" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I24" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
-        <v>1993</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="16"/>
+        <v>1958</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>108</v>
+      <c r="F25" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="12">
-        <v>0</v>
+      <c r="H25" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I25" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
-        <v>1994</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="16"/>
+        <v>1959</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>113</v>
+      <c r="F26" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="12">
-        <v>0</v>
+      <c r="H26" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I26" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
-        <v>1994</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="16"/>
+        <v>1960</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>110</v>
+      <c r="F27" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="12">
-        <v>0</v>
+      <c r="H27" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I27" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
-        <v>1994</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="16"/>
+        <v>1961</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>112</v>
+      <c r="F28" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="12">
-        <v>0</v>
+      <c r="H28" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I28" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
-        <v>1995</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="16"/>
+        <v>1962</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>115</v>
+      <c r="F29" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="12">
-        <v>0</v>
+      <c r="H29" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I29" s="8" t="str">
-        <f t="shared" ref="I29:I32" si="4">IF(OR(AND(G29&gt;1,G29&lt;&gt;"-"),AND(H29&gt;1,H29&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
-        <v>1995</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="16"/>
+        <v>1963</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E30" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>117</v>
+      <c r="F30" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="12">
-        <v>0</v>
+      <c r="H30" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I30" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
-        <v>1995</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="16"/>
+        <v>1964</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E31" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>116</v>
+      <c r="F31" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="12">
-        <v>0</v>
+      <c r="H31" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I31" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
-        <v>1996</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="16"/>
+        <v>1965</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E32" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>164</v>
+      <c r="F32" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="12">
-        <v>0</v>
+      <c r="H32" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I32" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
-        <v>1996</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="16"/>
+        <v>1966</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E33" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>165</v>
+      <c r="F33" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="12">
-        <v>0</v>
+      <c r="H33" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I33" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6032,26 +6278,28 @@
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
-        <v>1996</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="16"/>
+        <v>1967</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>166</v>
+      <c r="F34" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="12">
-        <v>0</v>
+      <c r="H34" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I34" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6060,26 +6308,28 @@
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
-        <v>1997</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="16"/>
+        <v>1968</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E35" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>167</v>
+      <c r="F35" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="12">
-        <v>0</v>
+      <c r="H35" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I35" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6088,26 +6338,28 @@
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
-        <v>1997</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="16"/>
+        <v>1969</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E36" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>168</v>
+      <c r="F36" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="12">
-        <v>0</v>
+      <c r="H36" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I36" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6116,26 +6368,28 @@
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
-        <v>1997</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="16"/>
+        <v>1970</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E37" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>169</v>
+      <c r="F37" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="12">
-        <v>0</v>
+      <c r="H37" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I37" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6144,160 +6398,170 @@
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
-        <v>1998</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="16"/>
+        <v>1971</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E38" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>170</v>
+      <c r="F38" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="12">
-        <v>0</v>
+      <c r="H38" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I38" s="8" t="str">
-        <f t="shared" ref="I38:I55" si="5">IF(OR(AND(G38&gt;1,G38&lt;&gt;"-"),AND(H38&gt;1,H38&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11">
-        <v>1998</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="16"/>
+        <v>1972</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E39" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>171</v>
+      <c r="F39" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="12">
-        <v>0</v>
+      <c r="H39" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I39" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
-        <v>1999</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="16"/>
+        <v>1973</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E40" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>172</v>
+      <c r="F40" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="12">
-        <v>0</v>
+      <c r="H40" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I40" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11">
-        <v>2000</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="16"/>
+        <v>1974</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E41" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>173</v>
+      <c r="F41" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="12">
-        <v>0</v>
+      <c r="H41" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I41" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11">
-        <v>2001</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="16"/>
+        <v>1975</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E42" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>174</v>
+      <c r="F42" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="12">
-        <v>0</v>
+      <c r="H42" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I42" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
-        <v>2002</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>158</v>
+        <v>1976</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>11</v>
@@ -6306,194 +6570,206 @@
         <v>0</v>
       </c>
       <c r="I43" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I43:I77" si="1">IF(OR(AND(G43&gt;1,G43&lt;&gt;"-"),AND(H43&gt;1,H43&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
-        <v>2003</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="16"/>
+        <v>1977</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E44" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>159</v>
+      <c r="F44" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="12">
-        <v>0</v>
+      <c r="H44" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I44" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
-        <v>2004</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="16"/>
+        <v>1978</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E45" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>160</v>
+      <c r="F45" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="12">
-        <v>0</v>
+      <c r="H45" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I45" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
-        <v>2004</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="16"/>
+        <v>1979</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E46" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>176</v>
+      <c r="F46" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="12">
-        <v>0</v>
+      <c r="H46" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I46" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11">
-        <v>2005</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="16"/>
+        <v>1980</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E47" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>161</v>
+      <c r="F47" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="12">
-        <v>0</v>
+      <c r="H47" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I47" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11">
-        <v>2005</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="16"/>
+        <v>1981</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E48" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>177</v>
+      <c r="F48" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="12">
-        <v>0</v>
+      <c r="H48" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I48" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11">
-        <v>2006</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="16"/>
+        <v>1982</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E49" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>162</v>
+      <c r="F49" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="12">
-        <v>0</v>
+      <c r="H49" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I49" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11">
-        <v>2006</v>
+        <v>1983</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>11</v>
@@ -6502,26 +6778,26 @@
         <v>0</v>
       </c>
       <c r="I50" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I50" si="2">IF(OR(AND(G50&gt;1,G50&lt;&gt;"-"),AND(H50&gt;1,H50&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
-        <v>2007</v>
+        <v>1984</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>11</v>
@@ -6530,54 +6806,56 @@
         <v>0</v>
       </c>
       <c r="I51" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
-        <v>2007</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="16"/>
+        <v>1985</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E52" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>180</v>
+      <c r="F52" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="12">
-        <v>0</v>
+      <c r="H52" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I52" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I52" si="3">IF(OR(AND(G52&gt;1,G52&lt;&gt;"-"),AND(H52&gt;1,H52&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
-        <v>2008</v>
+        <v>1986</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>11</v>
@@ -6586,26 +6864,26 @@
         <v>0</v>
       </c>
       <c r="I53" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
-        <v>2008</v>
+        <v>1987</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>11</v>
@@ -6614,26 +6892,26 @@
         <v>0</v>
       </c>
       <c r="I54" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I54:I68" si="4">IF(OR(AND(G54&gt;1,G54&lt;&gt;"-"),AND(H54&gt;1,H54&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11">
-        <v>2009</v>
+        <v>1988</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>11</v>
@@ -6642,26 +6920,26 @@
         <v>0</v>
       </c>
       <c r="I55" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
-        <v>2009</v>
+        <v>1989</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>11</v>
@@ -6670,26 +6948,26 @@
         <v>0</v>
       </c>
       <c r="I56" s="8" t="str">
-        <f t="shared" ref="I56:I84" si="6">IF(OR(AND(G56&gt;1,G56&lt;&gt;"-"),AND(H56&gt;1,H56&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>11</v>
@@ -6698,26 +6976,28 @@
         <v>0</v>
       </c>
       <c r="I57" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="E58" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>11</v>
@@ -6726,26 +7006,26 @@
         <v>0</v>
       </c>
       <c r="I58" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11">
-        <v>2011</v>
+        <v>1991</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>11</v>
@@ -6754,26 +7034,26 @@
         <v>0</v>
       </c>
       <c r="I59" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
-        <v>2011</v>
+        <v>1992</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>11</v>
@@ -6782,26 +7062,26 @@
         <v>0</v>
       </c>
       <c r="I60" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11">
-        <v>2012</v>
+        <v>1992</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>11</v>
@@ -6810,26 +7090,26 @@
         <v>0</v>
       </c>
       <c r="I61" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
-        <v>2012</v>
+        <v>1992</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>11</v>
@@ -6838,26 +7118,26 @@
         <v>0</v>
       </c>
       <c r="I62" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11">
-        <v>2012</v>
+        <v>1993</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="G63" s="13" t="s">
         <v>11</v>
@@ -6866,26 +7146,26 @@
         <v>0</v>
       </c>
       <c r="I63" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
-        <v>2013</v>
+        <v>1993</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>11</v>
@@ -6894,26 +7174,26 @@
         <v>0</v>
       </c>
       <c r="I64" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11">
-        <v>2013</v>
+        <v>1993</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>193</v>
+        <v>108</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>11</v>
@@ -6922,26 +7202,26 @@
         <v>0</v>
       </c>
       <c r="I65" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11">
-        <v>2013</v>
+        <v>1994</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="G66" s="13" t="s">
         <v>11</v>
@@ -6950,26 +7230,26 @@
         <v>0</v>
       </c>
       <c r="I66" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11">
-        <v>2014</v>
+        <v>1994</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="G67" s="13" t="s">
         <v>11</v>
@@ -6978,26 +7258,26 @@
         <v>0</v>
       </c>
       <c r="I67" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11">
-        <v>2014</v>
+        <v>1994</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="D68" s="16"/>
       <c r="E68" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="G68" s="13" t="s">
         <v>11</v>
@@ -7006,26 +7286,26 @@
         <v>0</v>
       </c>
       <c r="I68" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11">
-        <v>2014</v>
+        <v>1995</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>11</v>
@@ -7034,26 +7314,26 @@
         <v>0</v>
       </c>
       <c r="I69" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="I69:I72" si="5">IF(OR(AND(G69&gt;1,G69&lt;&gt;"-"),AND(H69&gt;1,H69&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>11</v>
@@ -7062,16 +7342,16 @@
         <v>0</v>
       </c>
       <c r="I70" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="C71" s="16" t="s">
         <v>19</v>
@@ -7081,7 +7361,7 @@
         <v>11</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
       <c r="G71" s="13" t="s">
         <v>11</v>
@@ -7090,26 +7370,26 @@
         <v>0</v>
       </c>
       <c r="I71" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11">
-        <v>2016</v>
+        <v>1996</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>11</v>
@@ -7118,26 +7398,26 @@
         <v>0</v>
       </c>
       <c r="I72" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11">
-        <v>2016</v>
+        <v>1996</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>11</v>
@@ -7146,16 +7426,16 @@
         <v>0</v>
       </c>
       <c r="I73" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11">
-        <v>2016</v>
+        <v>1996</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>19</v>
@@ -7165,7 +7445,7 @@
         <v>11</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>11</v>
@@ -7174,26 +7454,26 @@
         <v>0</v>
       </c>
       <c r="I74" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>11</v>
@@ -7202,16 +7482,16 @@
         <v>0</v>
       </c>
       <c r="I75" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>19</v>
@@ -7221,7 +7501,7 @@
         <v>11</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>11</v>
@@ -7230,24 +7510,26 @@
         <v>0</v>
       </c>
       <c r="I76" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" s="16"/>
+        <v>102</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="D77" s="16"/>
       <c r="E77" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>11</v>
@@ -7256,25 +7538,27 @@
         <v>0</v>
       </c>
       <c r="I77" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11">
-        <v>2018</v>
+        <v>1998</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>158</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="4"/>
+      <c r="F78" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="G78" s="13" t="s">
         <v>11</v>
       </c>
@@ -7282,16 +7566,16 @@
         <v>0</v>
       </c>
       <c r="I78" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="I78:I95" si="6">IF(OR(AND(G78&gt;1,G78&lt;&gt;"-"),AND(H78&gt;1,H78&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11">
-        <v>2018</v>
+        <v>1998</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>19</v>
@@ -7300,7 +7584,9 @@
       <c r="E79" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F79" s="4"/>
+      <c r="F79" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="G79" s="13" t="s">
         <v>11</v>
       </c>
@@ -7314,20 +7600,20 @@
     </row>
     <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11">
-        <v>2018</v>
+        <v>1999</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>11</v>
@@ -7342,18 +7628,20 @@
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C81" s="16"/>
+        <v>158</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="D81" s="16"/>
       <c r="E81" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>11</v>
@@ -7368,7 +7656,7 @@
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>158</v>
@@ -7380,7 +7668,9 @@
       <c r="E82" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="4"/>
+      <c r="F82" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="G82" s="13" t="s">
         <v>11</v>
       </c>
@@ -7394,19 +7684,21 @@
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11">
-        <v>2019</v>
+        <v>2002</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="4"/>
+      <c r="F83" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="G83" s="13" t="s">
         <v>11</v>
       </c>
@@ -7420,18 +7712,20 @@
     </row>
     <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C84" s="16"/>
+        <v>158</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="D84" s="16"/>
       <c r="E84" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>11</v>
@@ -7441,6 +7735,1112 @@
       </c>
       <c r="I84" s="8" t="str">
         <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="11">
+        <v>2004</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="16"/>
+      <c r="E85" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="12">
+        <v>0</v>
+      </c>
+      <c r="I85" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="11">
+        <v>2004</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="16"/>
+      <c r="E86" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="12">
+        <v>0</v>
+      </c>
+      <c r="I86" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="11">
+        <v>2005</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87" s="16"/>
+      <c r="E87" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="12">
+        <v>0</v>
+      </c>
+      <c r="I87" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="11">
+        <v>2005</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="16"/>
+      <c r="E88" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="12">
+        <v>0</v>
+      </c>
+      <c r="I88" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="11">
+        <v>2006</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" s="16"/>
+      <c r="E89" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="12">
+        <v>0</v>
+      </c>
+      <c r="I89" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="11">
+        <v>2006</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="16"/>
+      <c r="E90" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="12">
+        <v>0</v>
+      </c>
+      <c r="I90" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="11">
+        <v>2007</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" s="16"/>
+      <c r="E91" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="12">
+        <v>0</v>
+      </c>
+      <c r="I91" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="11">
+        <v>2007</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="16"/>
+      <c r="E92" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="12">
+        <v>0</v>
+      </c>
+      <c r="I92" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="11">
+        <v>2008</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D93" s="16"/>
+      <c r="E93" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="12">
+        <v>0</v>
+      </c>
+      <c r="I93" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="11">
+        <v>2008</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="16"/>
+      <c r="E94" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="12">
+        <v>0</v>
+      </c>
+      <c r="I94" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="11">
+        <v>2009</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" s="16"/>
+      <c r="E95" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="12">
+        <v>0</v>
+      </c>
+      <c r="I95" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="11">
+        <v>2009</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="16"/>
+      <c r="E96" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="12">
+        <v>0</v>
+      </c>
+      <c r="I96" s="8" t="str">
+        <f t="shared" ref="I96:I124" si="7">IF(OR(AND(G96&gt;1,G96&lt;&gt;"-"),AND(H96&gt;1,H96&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="11">
+        <v>2010</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D97" s="16"/>
+      <c r="E97" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="12">
+        <v>0</v>
+      </c>
+      <c r="I97" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="11">
+        <v>2010</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="16"/>
+      <c r="E98" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="12">
+        <v>0</v>
+      </c>
+      <c r="I98" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D99" s="16"/>
+      <c r="E99" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" s="12">
+        <v>0</v>
+      </c>
+      <c r="I99" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="16"/>
+      <c r="E100" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="12">
+        <v>0</v>
+      </c>
+      <c r="I100" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="11">
+        <v>2012</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D101" s="16"/>
+      <c r="E101" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="12">
+        <v>0</v>
+      </c>
+      <c r="I101" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="11">
+        <v>2012</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D102" s="16"/>
+      <c r="E102" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="12">
+        <v>0</v>
+      </c>
+      <c r="I102" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="11">
+        <v>2012</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="16"/>
+      <c r="E103" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" s="12">
+        <v>0</v>
+      </c>
+      <c r="I103" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="11">
+        <v>2013</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D104" s="16"/>
+      <c r="E104" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="12">
+        <v>0</v>
+      </c>
+      <c r="I104" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="11">
+        <v>2013</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D105" s="16"/>
+      <c r="E105" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="12">
+        <v>0</v>
+      </c>
+      <c r="I105" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="11">
+        <v>2013</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="16"/>
+      <c r="E106" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="12">
+        <v>0</v>
+      </c>
+      <c r="I106" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D107" s="16"/>
+      <c r="E107" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="12">
+        <v>0</v>
+      </c>
+      <c r="I107" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D108" s="16"/>
+      <c r="E108" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="12">
+        <v>0</v>
+      </c>
+      <c r="I108" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="16"/>
+      <c r="E109" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="12">
+        <v>0</v>
+      </c>
+      <c r="I109" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D110" s="16"/>
+      <c r="E110" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="12">
+        <v>0</v>
+      </c>
+      <c r="I110" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="16"/>
+      <c r="E111" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="12">
+        <v>0</v>
+      </c>
+      <c r="I111" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D112" s="16"/>
+      <c r="E112" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="12">
+        <v>0</v>
+      </c>
+      <c r="I112" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D113" s="16"/>
+      <c r="E113" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="12">
+        <v>0</v>
+      </c>
+      <c r="I113" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="16"/>
+      <c r="E114" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="12">
+        <v>0</v>
+      </c>
+      <c r="I114" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D115" s="16"/>
+      <c r="E115" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="12">
+        <v>0</v>
+      </c>
+      <c r="I115" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="16"/>
+      <c r="E116" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="12">
+        <v>0</v>
+      </c>
+      <c r="I116" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="12">
+        <v>0</v>
+      </c>
+      <c r="I117" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" s="16"/>
+      <c r="E118" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="4"/>
+      <c r="G118" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="12">
+        <v>0</v>
+      </c>
+      <c r="I118" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="16"/>
+      <c r="E119" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="4"/>
+      <c r="G119" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="12">
+        <v>0</v>
+      </c>
+      <c r="I119" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" s="16"/>
+      <c r="E120" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" s="12">
+        <v>0</v>
+      </c>
+      <c r="I120" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" s="12">
+        <v>0</v>
+      </c>
+      <c r="I121" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D122" s="16"/>
+      <c r="E122" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="4"/>
+      <c r="G122" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="12">
+        <v>0</v>
+      </c>
+      <c r="I122" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="16"/>
+      <c r="E123" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="4"/>
+      <c r="G123" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="12">
+        <v>0</v>
+      </c>
+      <c r="I123" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="12">
+        <v>0</v>
+      </c>
+      <c r="I124" s="8" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7452,13 +8852,13 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:H3 H11 G13:H84">
-    <cfRule type="containsText" dxfId="9" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+  <conditionalFormatting sqref="G43:H43 H51 G53:H124">
+    <cfRule type="containsText" dxfId="29" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H3 H11 G13:H84">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="G43:H43 H51 G53:H124">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -7469,13 +8869,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G9">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+  <conditionalFormatting sqref="G44:G49">
+    <cfRule type="containsText" dxfId="28" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G9">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="G44:G49">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -7486,13 +8886,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H9">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+  <conditionalFormatting sqref="H44:H49">
+    <cfRule type="containsText" dxfId="27" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H44))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H9">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="H44:H49">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -7503,13 +8903,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="containsText" dxfId="26" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G51))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="G51">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -7520,13 +8920,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:H10">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
+  <conditionalFormatting sqref="G50:H50">
+    <cfRule type="containsText" dxfId="25" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G50))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:H10">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="G50:H50">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -7537,13 +8937,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G52))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="G52">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -7554,13 +8954,47 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H52))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="H52">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G42">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G42">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H42">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H42">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>

--- a/Collections/USA/#USA#Proof_sets#[1936-present]#proof_quality.xlsx
+++ b/Collections/USA/#USA#Proof_sets#[1936-present]#proof_quality.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70517033-EDC4-4188-9FDF-55F0CFEF545C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBBA1C3-92C3-41E4-A3BA-9AEAB884626F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classic_Proof_sets" sheetId="6" r:id="rId1"/>
     <sheet name="Silver&amp;Prestige_Proof_sets" sheetId="7" r:id="rId2"/>
     <sheet name="Links" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">classic_Proof_sets!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Silver&amp;Prestige_Proof_sets'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +42,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="211">
   <si>
     <t>Mintage</t>
   </si>
@@ -231,18 +235,9 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -847,6 +842,18 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_3#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_2</t>
   </si>
 </sst>
 </file>
@@ -1037,17 +1044,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -1078,12 +1074,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1140,28 +1149,25 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,180 +1176,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1662,9 +1509,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="58" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="37" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1967,2847 +1814,2946 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J54" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="2" topLeftCell="K42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B98" sqref="B98"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="7" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="1" customWidth="1"/>
-    <col min="10" max="25" width="8.7265625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="14.453125" style="1"/>
+    <col min="1" max="1" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" style="5" customWidth="1"/>
+    <col min="8" max="9" width="3.6328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="1" customWidth="1"/>
+    <col min="11" max="26" width="8.7265625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="23"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="G1" s="24"/>
       <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="27"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="31" t="s">
+        <v>206</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1936</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="16"/>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="8" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="J3" s="9"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="8" t="str">
+        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>1937</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="8" t="str">
-        <f>IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="J4" s="9"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="str">
+        <f>IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>1938</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="16"/>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="8" t="str">
-        <f t="shared" ref="I5:I79" si="0">IF(OR(AND(G5&gt;1,G5&lt;&gt;"-"),AND(H5&gt;1,H5&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="J5" s="9"/>
+      <c r="G5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="8" t="str">
+        <f t="shared" ref="J5:J79" si="0">IF(OR(AND(H5&gt;1,H5&lt;&gt;"-"),AND(I5&gt;1,I5&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>1939</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="16"/>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J6" s="9"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>1940</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="16"/>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J7" s="9"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>1941</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="E8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="16"/>
+      <c r="F8" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>1942</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>1942</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>1943</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>1944</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>1945</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>1946</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E14" s="15"/>
       <c r="F14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>1947</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E15" s="15"/>
       <c r="F15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>1948</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E16" s="15"/>
       <c r="F16" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>1949</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E17" s="15"/>
       <c r="F17" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>1950</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="16"/>
+      <c r="F18" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>1951</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L19" s="21"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>1952</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D20" s="16"/>
-      <c r="E20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="16"/>
+      <c r="F20" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>1953</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D21" s="16"/>
-      <c r="E21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="16"/>
+      <c r="F21" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>1954</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D22" s="16"/>
-      <c r="E22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="16"/>
+      <c r="F22" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>1955</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>1955</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="8" t="str">
-        <f t="shared" ref="I24" si="1">IF(OR(AND(G24&gt;1,G24&lt;&gt;"-"),AND(H24&gt;1,H24&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="8" t="str">
+        <f t="shared" ref="J24" si="1">IF(OR(AND(H24&gt;1,H24&lt;&gt;"-"),AND(I24&gt;1,I24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>1956</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D25" s="16"/>
-      <c r="E25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="16"/>
+      <c r="F25" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>1957</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D26" s="16"/>
-      <c r="E26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="16"/>
+      <c r="F26" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>1958</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D27" s="16"/>
-      <c r="E27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="16"/>
+      <c r="F27" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>1959</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D28" s="16"/>
-      <c r="E28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="12">
-        <v>0</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="16"/>
+      <c r="F28" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>1960</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>1960</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="12">
-        <v>0</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>1961</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D31" s="16"/>
-      <c r="E31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="16"/>
+      <c r="F31" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>1962</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D32" s="16"/>
-      <c r="E32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="12">
-        <v>0</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="16"/>
+      <c r="F32" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>1963</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D33" s="16"/>
-      <c r="E33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="12">
-        <v>0</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="16"/>
+      <c r="F33" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>1964</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D34" s="16"/>
-      <c r="E34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="12">
-        <v>0</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="16"/>
+      <c r="F34" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>1965</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E35" s="15"/>
       <c r="F35" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>1966</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E36" s="15"/>
       <c r="F36" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
         <v>1967</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E37" s="15"/>
       <c r="F37" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>1968</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D38" s="16"/>
-      <c r="E38" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="12">
-        <v>0</v>
-      </c>
-      <c r="I38" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="16"/>
+      <c r="F38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11">
         <v>1968</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="12">
-        <v>0</v>
-      </c>
-      <c r="I39" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="12">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
         <v>1969</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D40" s="16"/>
-      <c r="E40" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="12">
-        <v>0</v>
-      </c>
-      <c r="I40" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="16"/>
+      <c r="F40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="12">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11">
         <v>1970</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D41" s="16"/>
-      <c r="E41" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="12">
-        <v>0</v>
-      </c>
-      <c r="I41" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E41" s="16"/>
+      <c r="F41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="12">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11">
         <v>1970</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="12">
-        <v>0</v>
-      </c>
-      <c r="I42" s="8" t="str">
-        <f t="shared" ref="I42:I43" si="2">IF(OR(AND(G42&gt;1,G42&lt;&gt;"-"),AND(H42&gt;1,H42&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="12">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8" t="str">
+        <f t="shared" ref="J42:J43" si="2">IF(OR(AND(H42&gt;1,H42&lt;&gt;"-"),AND(I42&gt;1,I42&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
         <v>1970</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="12">
-        <v>0</v>
-      </c>
-      <c r="I43" s="8" t="str">
+        <v>16</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="12">
+        <v>0</v>
+      </c>
+      <c r="J43" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
         <v>1971</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D44" s="16"/>
-      <c r="E44" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="12">
-        <v>0</v>
-      </c>
-      <c r="I44" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E44" s="16"/>
+      <c r="F44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="12">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>1971</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="12">
-        <v>0</v>
-      </c>
-      <c r="I45" s="8" t="str">
-        <f t="shared" ref="I45" si="3">IF(OR(AND(G45&gt;1,G45&lt;&gt;"-"),AND(H45&gt;1,H45&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="12">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8" t="str">
+        <f t="shared" ref="J45" si="3">IF(OR(AND(H45&gt;1,H45&lt;&gt;"-"),AND(I45&gt;1,I45&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
         <v>1972</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D46" s="16"/>
-      <c r="E46" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="12">
-        <v>0</v>
-      </c>
-      <c r="I46" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E46" s="16"/>
+      <c r="F46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="12">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11">
         <v>1973</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D47" s="16"/>
-      <c r="E47" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="12">
-        <v>0</v>
-      </c>
-      <c r="I47" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E47" s="16"/>
+      <c r="F47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="12">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11">
         <v>1974</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D48" s="16"/>
-      <c r="E48" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="12">
-        <v>0</v>
-      </c>
-      <c r="I48" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="16"/>
+      <c r="F48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11">
         <v>1975</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="12">
-        <v>0</v>
-      </c>
-      <c r="I49" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11">
         <v>1975</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="12">
-        <v>0</v>
-      </c>
-      <c r="I50" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>1976</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D51" s="16"/>
-      <c r="E51" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="12">
-        <v>0</v>
-      </c>
-      <c r="I51" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E51" s="16"/>
+      <c r="F51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="12">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>1977</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D52" s="16"/>
-      <c r="E52" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="12">
-        <v>0</v>
-      </c>
-      <c r="I52" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E52" s="16"/>
+      <c r="F52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
         <v>1978</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D53" s="16"/>
-      <c r="E53" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="12">
-        <v>0</v>
-      </c>
-      <c r="I53" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E53" s="16"/>
+      <c r="F53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
         <v>1979</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="12">
-        <v>0</v>
-      </c>
-      <c r="I54" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11">
         <v>1979</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="12">
-        <v>0</v>
-      </c>
-      <c r="I55" s="8" t="str">
-        <f t="shared" ref="I55" si="4">IF(OR(AND(G55&gt;1,G55&lt;&gt;"-"),AND(H55&gt;1,H55&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="12">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8" t="str">
+        <f t="shared" ref="J55" si="4">IF(OR(AND(H55&gt;1,H55&lt;&gt;"-"),AND(I55&gt;1,I55&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
         <v>1980</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D56" s="16"/>
-      <c r="E56" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="12">
-        <v>0</v>
-      </c>
-      <c r="I56" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E56" s="16"/>
+      <c r="F56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="12">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11">
         <v>1981</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="12">
-        <v>0</v>
-      </c>
-      <c r="I57" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="12">
+        <v>0</v>
+      </c>
+      <c r="J57" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>1981</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="12">
-        <v>0</v>
-      </c>
-      <c r="I58" s="8" t="str">
-        <f t="shared" ref="I58" si="5">IF(OR(AND(G58&gt;1,G58&lt;&gt;"-"),AND(H58&gt;1,H58&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="12">
+        <v>0</v>
+      </c>
+      <c r="J58" s="8" t="str">
+        <f t="shared" ref="J58" si="5">IF(OR(AND(H58&gt;1,H58&lt;&gt;"-"),AND(I58&gt;1,I58&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11">
         <v>1982</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D59" s="16"/>
-      <c r="E59" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="12">
-        <v>0</v>
-      </c>
-      <c r="I59" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E59" s="16"/>
+      <c r="F59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="12">
+        <v>0</v>
+      </c>
+      <c r="J59" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
         <v>1983</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D60" s="16"/>
-      <c r="E60" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="12">
-        <v>0</v>
-      </c>
-      <c r="I60" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E60" s="16"/>
+      <c r="F60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="12">
+        <v>0</v>
+      </c>
+      <c r="J60" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11">
         <v>1984</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D61" s="16"/>
-      <c r="E61" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="12">
-        <v>0</v>
-      </c>
-      <c r="I61" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E61" s="16"/>
+      <c r="F61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="12">
+        <v>0</v>
+      </c>
+      <c r="J61" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>1985</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D62" s="16"/>
-      <c r="E62" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="12">
-        <v>0</v>
-      </c>
-      <c r="I62" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E62" s="16"/>
+      <c r="F62" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="12">
+        <v>0</v>
+      </c>
+      <c r="J62" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11">
         <v>1986</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D63" s="16"/>
-      <c r="E63" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" s="12">
-        <v>0</v>
-      </c>
-      <c r="I63" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E63" s="16"/>
+      <c r="F63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="12">
+        <v>0</v>
+      </c>
+      <c r="J63" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
         <v>1987</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D64" s="16"/>
-      <c r="E64" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="12">
-        <v>0</v>
-      </c>
-      <c r="I64" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E64" s="16"/>
+      <c r="F64" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="12">
+        <v>0</v>
+      </c>
+      <c r="J64" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11">
         <v>1988</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D65" s="16"/>
-      <c r="E65" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="12">
-        <v>0</v>
-      </c>
-      <c r="I65" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E65" s="16"/>
+      <c r="F65" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="12">
+        <v>0</v>
+      </c>
+      <c r="J65" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11">
         <v>1989</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D66" s="16"/>
-      <c r="E66" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" s="12">
-        <v>0</v>
-      </c>
-      <c r="I66" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E66" s="16"/>
+      <c r="F66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="12">
+        <v>0</v>
+      </c>
+      <c r="J66" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11">
         <v>1990</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D67" s="16"/>
-      <c r="E67" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" s="12">
-        <v>0</v>
-      </c>
-      <c r="I67" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E67" s="16"/>
+      <c r="F67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="12">
+        <v>0</v>
+      </c>
+      <c r="J67" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11">
         <v>1990</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" s="12">
-        <v>0</v>
-      </c>
-      <c r="I68" s="8" t="str">
-        <f t="shared" ref="I68" si="6">IF(OR(AND(G68&gt;1,G68&lt;&gt;"-"),AND(H68&gt;1,H68&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="12">
+        <v>0</v>
+      </c>
+      <c r="J68" s="8" t="str">
+        <f t="shared" ref="J68" si="6">IF(OR(AND(H68&gt;1,H68&lt;&gt;"-"),AND(I68&gt;1,I68&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11">
         <v>1991</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D69" s="16"/>
-      <c r="E69" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H69" s="12">
-        <v>0</v>
-      </c>
-      <c r="I69" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E69" s="16"/>
+      <c r="F69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="12">
+        <v>0</v>
+      </c>
+      <c r="J69" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11">
         <v>1992</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D70" s="16"/>
-      <c r="E70" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="12">
-        <v>0</v>
-      </c>
-      <c r="I70" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E70" s="16"/>
+      <c r="F70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="12">
+        <v>0</v>
+      </c>
+      <c r="J70" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11">
         <v>1993</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D71" s="16"/>
-      <c r="E71" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="12">
-        <v>0</v>
-      </c>
-      <c r="I71" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E71" s="16"/>
+      <c r="F71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="12">
+        <v>0</v>
+      </c>
+      <c r="J71" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11">
         <v>1994</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D72" s="16"/>
-      <c r="E72" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" s="12">
-        <v>0</v>
-      </c>
-      <c r="I72" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E72" s="16"/>
+      <c r="F72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="12">
+        <v>0</v>
+      </c>
+      <c r="J72" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11">
         <v>1995</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D73" s="16"/>
-      <c r="E73" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H73" s="12">
-        <v>0</v>
-      </c>
-      <c r="I73" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E73" s="16"/>
+      <c r="F73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="12">
+        <v>0</v>
+      </c>
+      <c r="J73" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11">
         <v>1996</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D74" s="16"/>
-      <c r="E74" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" s="12">
-        <v>0</v>
-      </c>
-      <c r="I74" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E74" s="16"/>
+      <c r="F74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="12">
+        <v>0</v>
+      </c>
+      <c r="J74" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11">
         <v>1997</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D75" s="16"/>
-      <c r="E75" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" s="12">
-        <v>0</v>
-      </c>
-      <c r="I75" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E75" s="16"/>
+      <c r="F75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="12">
+        <v>0</v>
+      </c>
+      <c r="J75" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11">
         <v>1998</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D76" s="16"/>
-      <c r="E76" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" s="12">
-        <v>0</v>
-      </c>
-      <c r="I76" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E76" s="16"/>
+      <c r="F76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="12">
+        <v>0</v>
+      </c>
+      <c r="J76" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11">
         <v>1999</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" s="12">
-        <v>0</v>
-      </c>
-      <c r="I77" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="E77" s="16"/>
+      <c r="F77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="12">
+        <v>0</v>
+      </c>
+      <c r="J77" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11">
         <v>2000</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H78" s="12">
-        <v>0</v>
-      </c>
-      <c r="I78" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="E78" s="16"/>
+      <c r="F78" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="12">
+        <v>0</v>
+      </c>
+      <c r="J78" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11">
         <v>2001</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E79" s="16"/>
+      <c r="F79" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C79" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" s="12">
-        <v>0</v>
-      </c>
-      <c r="I79" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H79" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="12">
+        <v>0</v>
+      </c>
+      <c r="J79" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11">
         <v>2002</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C80" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="16"/>
+      <c r="F80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D80" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" s="12">
-        <v>0</v>
-      </c>
-      <c r="I80" s="8" t="str">
-        <f t="shared" ref="I80:I97" si="7">IF(OR(AND(G80&gt;1,G80&lt;&gt;"-"),AND(H80&gt;1,H80&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H80" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" s="12">
+        <v>0</v>
+      </c>
+      <c r="J80" s="8" t="str">
+        <f t="shared" ref="J80:J97" si="7">IF(OR(AND(H80&gt;1,H80&lt;&gt;"-"),AND(I80&gt;1,I80&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11">
         <v>2003</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81" s="12">
-        <v>0</v>
-      </c>
-      <c r="I81" s="8" t="str">
+        <v>134</v>
+      </c>
+      <c r="E81" s="16"/>
+      <c r="F81" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="12">
+        <v>0</v>
+      </c>
+      <c r="J81" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11">
         <v>2004</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" s="12">
-        <v>0</v>
-      </c>
-      <c r="I82" s="8" t="str">
+        <v>134</v>
+      </c>
+      <c r="E82" s="16"/>
+      <c r="F82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="12">
+        <v>0</v>
+      </c>
+      <c r="J82" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11">
         <v>2005</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" s="12">
-        <v>0</v>
-      </c>
-      <c r="I83" s="8" t="str">
+        <v>134</v>
+      </c>
+      <c r="E83" s="16"/>
+      <c r="F83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="12">
+        <v>0</v>
+      </c>
+      <c r="J83" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11">
         <v>2006</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" s="12">
-        <v>0</v>
-      </c>
-      <c r="I84" s="8" t="str">
+        <v>134</v>
+      </c>
+      <c r="E84" s="16"/>
+      <c r="F84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="12">
+        <v>0</v>
+      </c>
+      <c r="J84" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="11">
         <v>2007</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" s="12">
-        <v>0</v>
-      </c>
-      <c r="I85" s="8" t="str">
+        <v>133</v>
+      </c>
+      <c r="E85" s="16"/>
+      <c r="F85" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="12">
+        <v>0</v>
+      </c>
+      <c r="J85" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11">
         <v>2008</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C86" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86" s="16"/>
+      <c r="F86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="D86" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86" s="12">
-        <v>0</v>
-      </c>
-      <c r="I86" s="8" t="str">
+      <c r="H86" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="12">
+        <v>0</v>
+      </c>
+      <c r="J86" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11">
         <v>2009</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C87" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D87" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D87" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H87" s="12">
-        <v>0</v>
-      </c>
-      <c r="I87" s="8" t="str">
+      <c r="E87" s="16"/>
+      <c r="F87" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="12">
+        <v>0</v>
+      </c>
+      <c r="J87" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11">
         <v>2010</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G88" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88" s="12">
-        <v>0</v>
-      </c>
-      <c r="I88" s="8" t="str">
+      <c r="E88" s="16"/>
+      <c r="F88" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I88" s="12">
+        <v>0</v>
+      </c>
+      <c r="J88" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11">
         <v>2011</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" s="12">
-        <v>0</v>
-      </c>
-      <c r="I89" s="8" t="str">
+        <v>141</v>
+      </c>
+      <c r="E89" s="16"/>
+      <c r="F89" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="12">
+        <v>0</v>
+      </c>
+      <c r="J89" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11">
         <v>2012</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E90" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" s="12">
-        <v>0</v>
-      </c>
-      <c r="I90" s="8" t="str">
+        <v>141</v>
+      </c>
+      <c r="E90" s="16"/>
+      <c r="F90" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="12">
+        <v>0</v>
+      </c>
+      <c r="J90" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="11">
         <v>2013</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="12">
-        <v>0</v>
-      </c>
-      <c r="I91" s="8" t="str">
+        <v>141</v>
+      </c>
+      <c r="E91" s="16"/>
+      <c r="F91" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="12">
+        <v>0</v>
+      </c>
+      <c r="J91" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="11">
         <v>2014</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D92" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E92" s="16"/>
+      <c r="F92" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="E92" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H92" s="12">
-        <v>0</v>
-      </c>
-      <c r="I92" s="8" t="str">
+      <c r="H92" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" s="12">
+        <v>0</v>
+      </c>
+      <c r="J92" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="11">
         <v>2015</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" s="12">
-        <v>0</v>
-      </c>
-      <c r="I93" s="8" t="str">
+        <v>141</v>
+      </c>
+      <c r="E93" s="16"/>
+      <c r="F93" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="12">
+        <v>0</v>
+      </c>
+      <c r="J93" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="11">
         <v>2016</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="12">
-        <v>0</v>
-      </c>
-      <c r="I94" s="8" t="str">
+        <v>141</v>
+      </c>
+      <c r="E94" s="16"/>
+      <c r="F94" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="12">
+        <v>0</v>
+      </c>
+      <c r="J94" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="11">
         <v>2017</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" s="12">
-        <v>0</v>
-      </c>
-      <c r="I95" s="8" t="str">
+        <v>149</v>
+      </c>
+      <c r="E95" s="16"/>
+      <c r="F95" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="12">
+        <v>0</v>
+      </c>
+      <c r="J95" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11">
         <v>2018</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="4"/>
-      <c r="G96" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" s="12">
-        <v>0</v>
-      </c>
-      <c r="I96" s="8" t="str">
+        <v>149</v>
+      </c>
+      <c r="E96" s="16"/>
+      <c r="F96" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="33"/>
+      <c r="H96" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="12">
+        <v>0</v>
+      </c>
+      <c r="J96" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="11">
         <v>2019</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" s="12">
-        <v>0</v>
-      </c>
-      <c r="I97" s="8" t="str">
+        <v>149</v>
+      </c>
+      <c r="E97" s="16"/>
+      <c r="F97" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="33"/>
+      <c r="H97" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="12">
+        <v>0</v>
+      </c>
+      <c r="J97" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B1:B2"/>
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H40:H41 G3:G10 G18:G23 G30:G34 H44 H46:H49 H51:H54 G25:G28 H56:H57 H59:H67 H69:H97">
-    <cfRule type="containsText" dxfId="56" priority="72" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+  <conditionalFormatting sqref="I40:I41 H3:H10 H18:H23 H30:H34 I44 I46:I49 I51:I54 H25:H28 I56:I57 I59:I67 I69:I97">
+    <cfRule type="containsText" dxfId="35" priority="72" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H41 G3:G10 G18:G23 G30:G34 H44 H46:H49 H51:H54 G25:G28 H56:H57 H59:H67 H69:H97">
+  <conditionalFormatting sqref="I40:I41 H3:H10 H18:H23 H30:H34 I44 I46:I49 I51:I54 H25:H28 I56:I57 I59:I67 I69:I97">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4819,12 +4765,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H23 H30:H34 H25:H28">
-    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+  <conditionalFormatting sqref="I3:I23 I30:I34 I25:I28">
+    <cfRule type="containsText" dxfId="34" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H23 H30:H34 H25:H28">
+  <conditionalFormatting sqref="I3:I23 I30:I34 I25:I28">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4836,12 +4782,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35:G37">
-    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
+  <conditionalFormatting sqref="H35:H37">
+    <cfRule type="containsText" dxfId="33" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35:G37">
+  <conditionalFormatting sqref="H35:H37">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4853,12 +4799,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H37">
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
+  <conditionalFormatting sqref="I35:I37">
+    <cfRule type="containsText" dxfId="32" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H37">
+  <conditionalFormatting sqref="I35:I37">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4870,12 +4816,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38 G40:G41 G44 G46:G49 G51:G54 G56:G57 G59:G67 G69:G97">
-    <cfRule type="containsText" dxfId="52" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G38))))</formula>
+  <conditionalFormatting sqref="H38 H40:H41 H44 H46:H49 H51:H54 H56:H57 H59:H67 H69:H97">
+    <cfRule type="containsText" dxfId="31" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G41 G38 G44 G46:G49 G51:G54 G56:G57 G59:G67 G69:G97">
+  <conditionalFormatting sqref="H40:H41 H38 H44 H46:H49 H51:H54 H56:H57 H59:H67 H69:H97">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4887,12 +4833,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G17">
-    <cfRule type="containsText" dxfId="51" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
+  <conditionalFormatting sqref="H11:H17">
+    <cfRule type="containsText" dxfId="30" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G17">
+  <conditionalFormatting sqref="H11:H17">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4904,12 +4850,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="50" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="29" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4921,12 +4867,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="49" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="28" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="I29">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4938,12 +4884,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="containsText" dxfId="48" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="containsText" dxfId="27" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
+  <conditionalFormatting sqref="I38">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4955,12 +4901,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
+  <conditionalFormatting sqref="H39">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4972,12 +4918,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="46" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="containsText" dxfId="25" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="I39">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4989,12 +4935,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I42))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="I42">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5006,12 +4952,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
-    <cfRule type="containsText" dxfId="44" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H42))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
+  <conditionalFormatting sqref="H42">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5023,12 +4969,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="containsText" dxfId="22" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I43))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="I43">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5040,12 +4986,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
-    <cfRule type="containsText" dxfId="42" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
+  <conditionalFormatting sqref="H43">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5057,12 +5003,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="41" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I45))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="I45">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5074,12 +5020,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
-    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
+  <conditionalFormatting sqref="H45">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5091,12 +5037,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H50))))</formula>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I50))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
+  <conditionalFormatting sqref="I50">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5108,12 +5054,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="containsText" dxfId="38" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G50))))</formula>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H50))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
+  <conditionalFormatting sqref="H50">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5125,12 +5071,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="H24">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5142,12 +5088,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="36" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="I24">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5159,12 +5105,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="containsText" dxfId="35" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H55))))</formula>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I55))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
+  <conditionalFormatting sqref="I55">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5176,12 +5122,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G55">
-    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G55))))</formula>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H55))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G55">
+  <conditionalFormatting sqref="H55">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5193,12 +5139,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
+  <conditionalFormatting sqref="I58">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I58))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
+  <conditionalFormatting sqref="I58">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5210,12 +5156,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
-    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G58))))</formula>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
+  <conditionalFormatting sqref="H58">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5227,12 +5173,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H68))))</formula>
+  <conditionalFormatting sqref="I68">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I68))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="I68">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5244,12 +5190,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G68">
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G68))))</formula>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H68))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G68">
+  <conditionalFormatting sqref="H68">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5271,51 +5217,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J87" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F120" sqref="F120"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="7" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="1" customWidth="1"/>
     <col min="10" max="26" width="8.7265625" style="1" customWidth="1"/>
     <col min="27" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="31" t="s">
+        <v>206</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -5335,25 +5281,25 @@
         <v>1936</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I3" s="8" t="str">
         <f t="shared" ref="I3:I42" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
@@ -5368,25 +5314,25 @@
         <v>1937</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I4" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5401,25 +5347,25 @@
         <v>1938</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5434,25 +5380,25 @@
         <v>1939</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5467,25 +5413,25 @@
         <v>1940</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5500,25 +5446,25 @@
         <v>1941</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5530,25 +5476,25 @@
         <v>1942</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5560,25 +5506,25 @@
         <v>1943</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5590,25 +5536,25 @@
         <v>1944</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5620,25 +5566,25 @@
         <v>1945</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5650,25 +5596,25 @@
         <v>1946</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5680,25 +5626,25 @@
         <v>1947</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5710,25 +5656,25 @@
         <v>1948</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5740,25 +5686,25 @@
         <v>1949</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5770,25 +5716,25 @@
         <v>1950</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I17" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5800,25 +5746,25 @@
         <v>1951</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I18" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5830,25 +5776,25 @@
         <v>1952</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I19" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5861,25 +5807,25 @@
         <v>1953</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I20" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5891,25 +5837,25 @@
         <v>1954</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I21" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5921,25 +5867,25 @@
         <v>1955</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5951,25 +5897,25 @@
         <v>1956</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I23" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5981,25 +5927,25 @@
         <v>1957</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I24" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6011,25 +5957,25 @@
         <v>1958</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I25" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6041,25 +5987,25 @@
         <v>1959</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I26" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6071,25 +6017,25 @@
         <v>1960</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I27" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6101,25 +6047,25 @@
         <v>1961</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I28" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6131,25 +6077,25 @@
         <v>1962</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I29" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6161,25 +6107,25 @@
         <v>1963</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6191,25 +6137,25 @@
         <v>1964</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I31" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6221,25 +6167,25 @@
         <v>1965</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I32" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6251,25 +6197,25 @@
         <v>1966</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I33" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6281,25 +6227,25 @@
         <v>1967</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I34" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6311,25 +6257,25 @@
         <v>1968</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I35" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6341,25 +6287,25 @@
         <v>1969</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6371,25 +6317,25 @@
         <v>1970</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I37" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6401,25 +6347,25 @@
         <v>1971</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I38" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6431,25 +6377,25 @@
         <v>1972</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I39" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6461,25 +6407,25 @@
         <v>1973</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I40" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6491,25 +6437,25 @@
         <v>1974</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I41" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6521,25 +6467,25 @@
         <v>1975</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I42" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6551,20 +6497,20 @@
         <v>1976</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>61</v>
+        <v>8</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H43" s="12">
         <v>0</v>
@@ -6579,25 +6525,25 @@
         <v>1977</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I44" s="8" t="str">
         <f t="shared" si="1"/>
@@ -6609,25 +6555,25 @@
         <v>1978</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I45" s="8" t="str">
         <f t="shared" si="1"/>
@@ -6639,25 +6585,25 @@
         <v>1979</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I46" s="8" t="str">
         <f t="shared" si="1"/>
@@ -6669,25 +6615,25 @@
         <v>1980</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I47" s="8" t="str">
         <f t="shared" si="1"/>
@@ -6699,25 +6645,25 @@
         <v>1981</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I48" s="8" t="str">
         <f t="shared" si="1"/>
@@ -6729,25 +6675,25 @@
         <v>1982</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I49" s="8" t="str">
         <f t="shared" si="1"/>
@@ -6759,20 +6705,20 @@
         <v>1983</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H50" s="12">
         <v>0</v>
@@ -6787,20 +6733,20 @@
         <v>1984</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>72</v>
+        <v>8</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H51" s="12">
         <v>0</v>
@@ -6815,25 +6761,25 @@
         <v>1985</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I52" s="8" t="str">
         <f t="shared" ref="I52" si="3">IF(OR(AND(G52&gt;1,G52&lt;&gt;"-"),AND(H52&gt;1,H52&lt;&gt;"-")),"Can exchange","")</f>
@@ -6845,20 +6791,20 @@
         <v>1986</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>83</v>
+        <v>8</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H53" s="12">
         <v>0</v>
@@ -6873,20 +6819,20 @@
         <v>1987</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>86</v>
+        <v>8</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H54" s="12">
         <v>0</v>
@@ -6901,20 +6847,20 @@
         <v>1988</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>87</v>
+        <v>8</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H55" s="12">
         <v>0</v>
@@ -6929,20 +6875,20 @@
         <v>1989</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>90</v>
+        <v>8</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>87</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H56" s="12">
         <v>0</v>
@@ -6957,20 +6903,20 @@
         <v>1990</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>92</v>
+        <v>8</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H57" s="12">
         <v>0</v>
@@ -6985,22 +6931,22 @@
         <v>1990</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>92</v>
+        <v>8</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H58" s="12">
         <v>0</v>
@@ -7015,20 +6961,20 @@
         <v>1991</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>99</v>
+        <v>8</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H59" s="12">
         <v>0</v>
@@ -7043,20 +6989,20 @@
         <v>1992</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>101</v>
+        <v>8</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H60" s="12">
         <v>0</v>
@@ -7071,20 +7017,20 @@
         <v>1992</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>103</v>
+        <v>8</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H61" s="12">
         <v>0</v>
@@ -7099,20 +7045,20 @@
         <v>1992</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>104</v>
+        <v>8</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>101</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H62" s="12">
         <v>0</v>
@@ -7127,20 +7073,20 @@
         <v>1993</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>106</v>
+        <v>8</v>
+      </c>
+      <c r="F63" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H63" s="12">
         <v>0</v>
@@ -7155,20 +7101,20 @@
         <v>1993</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>109</v>
+        <v>8</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H64" s="12">
         <v>0</v>
@@ -7183,20 +7129,20 @@
         <v>1993</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>108</v>
+        <v>8</v>
+      </c>
+      <c r="F65" s="33" t="s">
+        <v>105</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H65" s="12">
         <v>0</v>
@@ -7211,20 +7157,20 @@
         <v>1994</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>113</v>
+        <v>8</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H66" s="12">
         <v>0</v>
@@ -7239,20 +7185,20 @@
         <v>1994</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>110</v>
+        <v>8</v>
+      </c>
+      <c r="F67" s="33" t="s">
+        <v>107</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H67" s="12">
         <v>0</v>
@@ -7267,20 +7213,20 @@
         <v>1994</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D68" s="16"/>
       <c r="E68" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>112</v>
+        <v>8</v>
+      </c>
+      <c r="F68" s="33" t="s">
+        <v>109</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H68" s="12">
         <v>0</v>
@@ -7295,20 +7241,20 @@
         <v>1995</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>115</v>
+        <v>8</v>
+      </c>
+      <c r="F69" s="33" t="s">
+        <v>112</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H69" s="12">
         <v>0</v>
@@ -7323,20 +7269,20 @@
         <v>1995</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>117</v>
+        <v>8</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>114</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H70" s="12">
         <v>0</v>
@@ -7351,20 +7297,20 @@
         <v>1995</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>116</v>
+        <v>8</v>
+      </c>
+      <c r="F71" s="33" t="s">
+        <v>113</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H71" s="12">
         <v>0</v>
@@ -7379,20 +7325,20 @@
         <v>1996</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>164</v>
+        <v>8</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>161</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H72" s="12">
         <v>0</v>
@@ -7407,20 +7353,20 @@
         <v>1996</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>165</v>
+        <v>8</v>
+      </c>
+      <c r="F73" s="33" t="s">
+        <v>162</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H73" s="12">
         <v>0</v>
@@ -7435,20 +7381,20 @@
         <v>1996</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>166</v>
+        <v>8</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H74" s="12">
         <v>0</v>
@@ -7463,20 +7409,20 @@
         <v>1997</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>167</v>
+        <v>8</v>
+      </c>
+      <c r="F75" s="33" t="s">
+        <v>164</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H75" s="12">
         <v>0</v>
@@ -7491,20 +7437,20 @@
         <v>1997</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>168</v>
+        <v>8</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H76" s="12">
         <v>0</v>
@@ -7519,20 +7465,20 @@
         <v>1997</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>169</v>
+        <v>8</v>
+      </c>
+      <c r="F77" s="33" t="s">
+        <v>166</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H77" s="12">
         <v>0</v>
@@ -7547,20 +7493,20 @@
         <v>1998</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>170</v>
+        <v>8</v>
+      </c>
+      <c r="F78" s="33" t="s">
+        <v>167</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H78" s="12">
         <v>0</v>
@@ -7575,20 +7521,20 @@
         <v>1998</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>171</v>
+        <v>8</v>
+      </c>
+      <c r="F79" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H79" s="12">
         <v>0</v>
@@ -7603,20 +7549,20 @@
         <v>1999</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>172</v>
+        <v>8</v>
+      </c>
+      <c r="F80" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H80" s="12">
         <v>0</v>
@@ -7631,20 +7577,20 @@
         <v>2000</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>173</v>
+        <v>8</v>
+      </c>
+      <c r="F81" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H81" s="12">
         <v>0</v>
@@ -7659,20 +7605,20 @@
         <v>2001</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>174</v>
+        <v>8</v>
+      </c>
+      <c r="F82" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H82" s="12">
         <v>0</v>
@@ -7687,20 +7633,20 @@
         <v>2002</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>175</v>
+        <v>8</v>
+      </c>
+      <c r="F83" s="33" t="s">
+        <v>172</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H83" s="12">
         <v>0</v>
@@ -7715,20 +7661,20 @@
         <v>2003</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>159</v>
+        <v>8</v>
+      </c>
+      <c r="F84" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H84" s="12">
         <v>0</v>
@@ -7743,20 +7689,20 @@
         <v>2004</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>160</v>
+        <v>8</v>
+      </c>
+      <c r="F85" s="33" t="s">
+        <v>157</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H85" s="12">
         <v>0</v>
@@ -7771,20 +7717,20 @@
         <v>2004</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>176</v>
+        <v>8</v>
+      </c>
+      <c r="F86" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H86" s="12">
         <v>0</v>
@@ -7799,20 +7745,20 @@
         <v>2005</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>161</v>
+        <v>8</v>
+      </c>
+      <c r="F87" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H87" s="12">
         <v>0</v>
@@ -7827,20 +7773,20 @@
         <v>2005</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>177</v>
+        <v>8</v>
+      </c>
+      <c r="F88" s="33" t="s">
+        <v>174</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H88" s="12">
         <v>0</v>
@@ -7855,20 +7801,20 @@
         <v>2006</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>162</v>
+        <v>8</v>
+      </c>
+      <c r="F89" s="33" t="s">
+        <v>159</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H89" s="12">
         <v>0</v>
@@ -7883,20 +7829,20 @@
         <v>2006</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>178</v>
+        <v>8</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H90" s="12">
         <v>0</v>
@@ -7911,20 +7857,20 @@
         <v>2007</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>179</v>
+        <v>8</v>
+      </c>
+      <c r="F91" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H91" s="12">
         <v>0</v>
@@ -7939,20 +7885,20 @@
         <v>2007</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>180</v>
+        <v>8</v>
+      </c>
+      <c r="F92" s="33" t="s">
+        <v>177</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H92" s="12">
         <v>0</v>
@@ -7967,20 +7913,20 @@
         <v>2008</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>181</v>
+        <v>8</v>
+      </c>
+      <c r="F93" s="33" t="s">
+        <v>178</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H93" s="12">
         <v>0</v>
@@ -7995,20 +7941,20 @@
         <v>2008</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>182</v>
+        <v>8</v>
+      </c>
+      <c r="F94" s="33" t="s">
+        <v>179</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H94" s="12">
         <v>0</v>
@@ -8023,20 +7969,20 @@
         <v>2009</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>183</v>
+        <v>8</v>
+      </c>
+      <c r="F95" s="33" t="s">
+        <v>180</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H95" s="12">
         <v>0</v>
@@ -8051,20 +7997,20 @@
         <v>2009</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>184</v>
+        <v>8</v>
+      </c>
+      <c r="F96" s="33" t="s">
+        <v>181</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H96" s="12">
         <v>0</v>
@@ -8079,20 +8025,20 @@
         <v>2010</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D97" s="16"/>
       <c r="E97" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>185</v>
+        <v>8</v>
+      </c>
+      <c r="F97" s="33" t="s">
+        <v>182</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H97" s="12">
         <v>0</v>
@@ -8107,20 +8053,20 @@
         <v>2010</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>186</v>
+        <v>8</v>
+      </c>
+      <c r="F98" s="33" t="s">
+        <v>183</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H98" s="12">
         <v>0</v>
@@ -8135,20 +8081,20 @@
         <v>2011</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>187</v>
+        <v>8</v>
+      </c>
+      <c r="F99" s="33" t="s">
+        <v>184</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H99" s="12">
         <v>0</v>
@@ -8163,20 +8109,20 @@
         <v>2011</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>188</v>
+        <v>8</v>
+      </c>
+      <c r="F100" s="33" t="s">
+        <v>185</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H100" s="12">
         <v>0</v>
@@ -8191,20 +8137,20 @@
         <v>2012</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>189</v>
+        <v>8</v>
+      </c>
+      <c r="F101" s="33" t="s">
+        <v>186</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H101" s="12">
         <v>0</v>
@@ -8219,20 +8165,20 @@
         <v>2012</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>190</v>
+        <v>8</v>
+      </c>
+      <c r="F102" s="33" t="s">
+        <v>187</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H102" s="12">
         <v>0</v>
@@ -8247,20 +8193,20 @@
         <v>2012</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D103" s="16"/>
       <c r="E103" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>191</v>
+        <v>8</v>
+      </c>
+      <c r="F103" s="33" t="s">
+        <v>188</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H103" s="12">
         <v>0</v>
@@ -8275,20 +8221,20 @@
         <v>2013</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>192</v>
+        <v>8</v>
+      </c>
+      <c r="F104" s="33" t="s">
+        <v>189</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H104" s="12">
         <v>0</v>
@@ -8303,20 +8249,20 @@
         <v>2013</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D105" s="16"/>
       <c r="E105" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>193</v>
+        <v>8</v>
+      </c>
+      <c r="F105" s="33" t="s">
+        <v>190</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H105" s="12">
         <v>0</v>
@@ -8331,20 +8277,20 @@
         <v>2013</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>194</v>
+        <v>8</v>
+      </c>
+      <c r="F106" s="33" t="s">
+        <v>191</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H106" s="12">
         <v>0</v>
@@ -8359,20 +8305,20 @@
         <v>2014</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D107" s="16"/>
       <c r="E107" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>195</v>
+        <v>8</v>
+      </c>
+      <c r="F107" s="33" t="s">
+        <v>192</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H107" s="12">
         <v>0</v>
@@ -8387,20 +8333,20 @@
         <v>2014</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D108" s="16"/>
       <c r="E108" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>196</v>
+        <v>8</v>
+      </c>
+      <c r="F108" s="33" t="s">
+        <v>193</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H108" s="12">
         <v>0</v>
@@ -8415,20 +8361,20 @@
         <v>2014</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D109" s="16"/>
       <c r="E109" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>197</v>
+        <v>8</v>
+      </c>
+      <c r="F109" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H109" s="12">
         <v>0</v>
@@ -8443,20 +8389,20 @@
         <v>2015</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D110" s="16"/>
       <c r="E110" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>198</v>
+        <v>8</v>
+      </c>
+      <c r="F110" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H110" s="12">
         <v>0</v>
@@ -8471,20 +8417,20 @@
         <v>2015</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D111" s="16"/>
       <c r="E111" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>199</v>
+        <v>8</v>
+      </c>
+      <c r="F111" s="33" t="s">
+        <v>196</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H111" s="12">
         <v>0</v>
@@ -8499,20 +8445,20 @@
         <v>2016</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>200</v>
+        <v>8</v>
+      </c>
+      <c r="F112" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H112" s="12">
         <v>0</v>
@@ -8527,20 +8473,20 @@
         <v>2016</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D113" s="16"/>
       <c r="E113" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>201</v>
+        <v>8</v>
+      </c>
+      <c r="F113" s="33" t="s">
+        <v>198</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H113" s="12">
         <v>0</v>
@@ -8555,20 +8501,20 @@
         <v>2016</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>202</v>
+        <v>8</v>
+      </c>
+      <c r="F114" s="33" t="s">
+        <v>199</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H114" s="12">
         <v>0</v>
@@ -8583,20 +8529,20 @@
         <v>2017</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D115" s="16"/>
       <c r="E115" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>203</v>
+        <v>8</v>
+      </c>
+      <c r="F115" s="33" t="s">
+        <v>200</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H115" s="12">
         <v>0</v>
@@ -8611,20 +8557,20 @@
         <v>2017</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D116" s="16"/>
       <c r="E116" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>204</v>
+        <v>8</v>
+      </c>
+      <c r="F116" s="33" t="s">
+        <v>201</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H116" s="12">
         <v>0</v>
@@ -8639,18 +8585,18 @@
         <v>2017</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>205</v>
+        <v>8</v>
+      </c>
+      <c r="F117" s="33" t="s">
+        <v>202</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H117" s="12">
         <v>0</v>
@@ -8665,18 +8611,18 @@
         <v>2018</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D118" s="16"/>
       <c r="E118" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F118" s="33"/>
       <c r="G118" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H118" s="12">
         <v>0</v>
@@ -8691,18 +8637,18 @@
         <v>2018</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D119" s="16"/>
       <c r="E119" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F119" s="33"/>
       <c r="G119" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H119" s="12">
         <v>0</v>
@@ -8717,20 +8663,20 @@
         <v>2018</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D120" s="16"/>
       <c r="E120" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>206</v>
+        <v>8</v>
+      </c>
+      <c r="F120" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H120" s="12">
         <v>0</v>
@@ -8745,18 +8691,18 @@
         <v>2018</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
       <c r="E121" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>207</v>
+        <v>8</v>
+      </c>
+      <c r="F121" s="33" t="s">
+        <v>204</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H121" s="12">
         <v>0</v>
@@ -8771,18 +8717,18 @@
         <v>2019</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D122" s="16"/>
       <c r="E122" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F122" s="33"/>
       <c r="G122" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H122" s="12">
         <v>0</v>
@@ -8797,18 +8743,18 @@
         <v>2019</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D123" s="16"/>
       <c r="E123" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F123" s="33"/>
       <c r="G123" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H123" s="12">
         <v>0</v>
@@ -8823,18 +8769,18 @@
         <v>2019</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
       <c r="E124" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>208</v>
+        <v>8</v>
+      </c>
+      <c r="F124" s="33" t="s">
+        <v>205</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H124" s="12">
         <v>0</v>
@@ -8845,15 +8791,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G43:H43 H51 G53:H124">
-    <cfRule type="containsText" dxfId="29" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8870,7 +8816,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:G49">
-    <cfRule type="containsText" dxfId="28" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8887,7 +8833,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44:H49">
-    <cfRule type="containsText" dxfId="27" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8904,7 +8850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="26" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G51))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8921,7 +8867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H50">
-    <cfRule type="containsText" dxfId="25" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G50))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8938,7 +8884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8955,7 +8901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8972,7 +8918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G42">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8989,7 +8935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H42">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9028,13 +8974,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9042,10 +8988,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -9053,10 +8999,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
